--- a/VotingSystem/EM_Fall_2017.xlsx
+++ b/VotingSystem/EM_Fall_2017.xlsx
@@ -1,79 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="EM_41" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="EM_42" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="EM_43" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="EM_44" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="EM_41" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EM_42" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="EM_43" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="EM_44" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
-    <t xml:space="preserve">Section</t>
+    <t>Section</t>
   </si>
   <si>
-    <t xml:space="preserve">major_numeric</t>
+    <t>major_numeric</t>
   </si>
   <si>
-    <t xml:space="preserve">sid</t>
+    <t>sid</t>
   </si>
   <si>
-    <t xml:space="preserve">GPA</t>
+    <t>GPA</t>
   </si>
   <si>
-    <t xml:space="preserve">score</t>
+    <t>score</t>
   </si>
   <si>
-    <t xml:space="preserve">level</t>
+    <t>level</t>
   </si>
   <si>
-    <t xml:space="preserve">group_num</t>
+    <t>group_num</t>
   </si>
   <si>
-    <t xml:space="preserve">group_type</t>
+    <t>group_type</t>
   </si>
   <si>
-    <t xml:space="preserve">HHHH</t>
+    <t>1st_QLA_15</t>
   </si>
   <si>
-    <t xml:space="preserve">MMMM</t>
+    <t>2nd_QLA_15</t>
   </si>
   <si>
-    <t xml:space="preserve">LLLL</t>
+    <t>LLLL</t>
   </si>
   <si>
-    <t xml:space="preserve">HMML</t>
+    <t>HMLL</t>
   </si>
   <si>
-    <t xml:space="preserve">HMLL</t>
+    <t>HMML</t>
   </si>
   <si>
-    <t xml:space="preserve">bin_team4_</t>
+    <t>MMMM</t>
   </si>
   <si>
-    <t xml:space="preserve">HHML</t>
+    <t>bin_team4_</t>
   </si>
   <si>
-    <t xml:space="preserve">bin_team5_</t>
+    <t>HHHH</t>
   </si>
   <si>
-    <t xml:space="preserve">HMMML</t>
+    <t>HHML</t>
+  </si>
+  <si>
+    <t>bin_team5_</t>
+  </si>
+  <si>
+    <t>HMMML</t>
   </si>
 </sst>
 </file>
@@ -81,57 +81,60 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -139,161 +142,446 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col customWidth="1" max="3" min="1" style="2" width="8.570850202429151"/>
+    <col customWidth="1" max="4" min="4" style="2" width="18.5303643724696"/>
+    <col customWidth="1" max="1025" min="5" style="2" width="8.570850202429151"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row customHeight="1" ht="15" r="1" s="3" spans="1:11">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>248</v>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" s="3" spans="1:11">
+      <c r="A2" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2012313245</v>
+        <v>2015310113</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>180</v>
+        <v>10</v>
+      </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="3" spans="1:11">
+      <c r="A3" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2016311708</v>
+        <v>2015312803</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.11</v>
+        <v>0.17</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>235</v>
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="3" spans="1:11">
+      <c r="A4" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>41</v>
@@ -302,143 +590,171 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2014314912</v>
+        <v>2016312276</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>179</v>
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="3" spans="1:11">
+      <c r="A5" s="4" t="n">
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2016311700</v>
+        <v>2015311220</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4.16</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>230</v>
+        <v>11</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="3" spans="1:11">
+      <c r="A6" s="4" t="n">
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2014311254</v>
+        <v>2014312532</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.5</v>
+        <v>2.69</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>232</v>
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="3" spans="1:11">
+      <c r="A7" s="4" t="n">
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2013313484</v>
+        <v>2013314489</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>247</v>
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="3" spans="1:11">
+      <c r="A8" s="4" t="n">
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2016310717</v>
+        <v>2014313069</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.25</v>
+        <v>3.71</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>178</v>
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="3" spans="1:11">
+      <c r="A9" s="4" t="n">
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>41</v>
@@ -447,85 +763,103 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2015311059</v>
+        <v>2016311449</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3.94</v>
+        <v>2.2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>139</v>
+        <v>11</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="3" spans="1:11">
+      <c r="A10" s="4" t="n">
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2016314693</v>
+        <v>2012311676</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>3.71</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>133</v>
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="3" spans="1:11">
+      <c r="A11" s="4" t="n">
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2015310284</v>
+        <v>2014310487</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3</v>
+        <v>3.98</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>173</v>
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="3" spans="1:11">
+      <c r="A12" s="4" t="n">
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>41</v>
@@ -534,56 +868,68 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2013312682</v>
+        <v>2014311415</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>98</v>
+        <v>11</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="3" spans="1:11">
+      <c r="A13" s="4" t="n">
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2013312424</v>
+        <v>2015314115</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>174</v>
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="3" spans="1:11">
+      <c r="A14" s="4" t="n">
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>41</v>
@@ -592,85 +938,103 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2016312457</v>
+        <v>2016312771</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.7</v>
+        <v>3.03</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>131</v>
+        <v>12</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="3" spans="1:11">
+      <c r="A15" s="4" t="n">
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2015311788</v>
+        <v>2014310523</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="3" spans="1:11">
+      <c r="A16" s="4" t="n">
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2016310213</v>
+        <v>2014310953</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3.8</v>
+        <v>2.83</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>132</v>
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="3" spans="1:11">
+      <c r="A17" s="4" t="n">
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>41</v>
@@ -679,39 +1043,45 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2013313794</v>
+        <v>2014314789</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="3" spans="1:11">
+      <c r="A18" s="4" t="n">
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2014313486</v>
+        <v>2015313496</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>8</v>
@@ -720,15 +1090,19 @@
         <v>2</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="J18" t="s"/>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="3" spans="1:11">
+      <c r="A19" s="4" t="n">
+        <v>64</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>41</v>
@@ -737,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2015310113</v>
+        <v>2016310341</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.7</v>
+        <v>4.25</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>2</v>
@@ -754,9 +1128,15 @@
       <c r="I19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="3" spans="1:11">
+      <c r="A20" s="4" t="n">
         <v>65</v>
       </c>
       <c r="B20" s="2" t="n">
@@ -783,22 +1163,28 @@
       <c r="I20" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>64</v>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="3" spans="1:11">
+      <c r="A21" s="4" t="n">
+        <v>66</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2016310341</v>
+        <v>2014312575</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>4.25</v>
+        <v>3.32</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>8</v>
@@ -807,43 +1193,55 @@
         <v>2</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="3" spans="1:11">
+      <c r="A22" s="4" t="n">
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2015312803</v>
+        <v>2013314206</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.17</v>
+        <v>3.4</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="3" spans="1:11">
+      <c r="A23" s="4" t="n">
         <v>68</v>
       </c>
       <c r="B23" s="2" t="n">
@@ -870,39 +1268,51 @@
       <c r="I23" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>37</v>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="3" spans="1:11">
+      <c r="A24" s="4" t="n">
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2012311676</v>
+        <v>2014313486</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>38</v>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" s="3" spans="1:11">
+      <c r="A25" s="4" t="n">
+        <v>95</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>41</v>
@@ -911,27 +1321,33 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2014310487</v>
+        <v>2016310213</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>3.98</v>
+        <v>3.8</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>129</v>
+        <v>13</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="3" spans="1:11">
+      <c r="A26" s="4" t="n">
+        <v>96</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>41</v>
@@ -940,143 +1356,165 @@
         <v>2</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2013311994</v>
+        <v>2016312486</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>4</v>
+        <v>2.58</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" s="3" spans="1:11">
+      <c r="A27" s="4" t="n">
+        <v>97</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2014310953</v>
+        <v>2016314677</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.83</v>
+        <v>3.32</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>137</v>
+      <c r="J27" t="s"/>
+      <c r="K27" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="28" s="3" spans="1:11">
+      <c r="A28" s="4" t="n">
+        <v>98</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2016312937</v>
+        <v>2013312424</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>231</v>
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29" s="3" spans="1:11">
+      <c r="A29" s="4" t="n">
+        <v>99</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2016310982</v>
+        <v>2014312099</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>3.79</v>
+        <v>3.3</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>175</v>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="3" spans="1:11">
+      <c r="A30" s="4" t="n">
+        <v>100</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2016314208</v>
+        <v>2014312275</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>204</v>
+        <v>12</v>
+      </c>
+      <c r="J30" t="s"/>
+      <c r="K30" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="31" s="3" spans="1:11">
+      <c r="A31" s="4" t="n">
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>41</v>
@@ -1085,26 +1523,32 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2014313701</v>
+        <v>2014312326</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>3.83</v>
+        <v>2.1</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32" s="3" spans="1:11">
+      <c r="A32" s="4" t="n">
         <v>102</v>
       </c>
       <c r="B32" s="2" t="n">
@@ -1129,12 +1573,18 @@
         <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33" s="3" spans="1:11">
+      <c r="A33" s="4" t="n">
+        <v>103</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>41</v>
@@ -1143,56 +1593,68 @@
         <v>7</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2014314789</v>
+        <v>2016312837</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34" s="3" spans="1:11">
+      <c r="A34" s="4" t="n">
+        <v>128</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2013314489</v>
+        <v>2016312582</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>96</v>
+        <v>12</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35" s="3" spans="1:11">
+      <c r="A35" s="4" t="n">
+        <v>129</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>41</v>
@@ -1201,39 +1663,45 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2016312486</v>
+        <v>2013311994</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2.58</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>136</v>
+        <v>12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="3" spans="1:11">
+      <c r="A36" s="4" t="n">
+        <v>130</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2016312906</v>
+        <v>2016314369</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>4.18</v>
+        <v>3.61</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>10</v>
@@ -1242,44 +1710,56 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>199</v>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37" s="3" spans="1:11">
+      <c r="A37" s="4" t="n">
+        <v>131</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2014312447</v>
+        <v>2015311788</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>3.82</v>
+        <v>2.9</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>134</v>
+        <v>13</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38" s="3" spans="1:11">
+      <c r="A38" s="4" t="n">
+        <v>132</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>41</v>
@@ -1288,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2016311873</v>
+        <v>2013313794</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>3.8</v>
@@ -1300,44 +1780,54 @@
         <v>1</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39" s="3" spans="1:11">
+      <c r="A39" s="4" t="n">
+        <v>133</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2016312771</v>
+        <v>2015310284</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>103</v>
+        <v>13</v>
+      </c>
+      <c r="J39" t="s"/>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" s="3" spans="1:11">
+      <c r="A40" s="4" t="n">
+        <v>134</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>41</v>
@@ -1346,13 +1836,13 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2016312837</v>
+        <v>2016311873</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2.86</v>
+        <v>3.8</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>1</v>
@@ -1361,41 +1851,53 @@
         <v>10</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>201</v>
+        <v>12</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" s="3" spans="1:11">
+      <c r="A41" s="4" t="n">
+        <v>135</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2016313086</v>
+        <v>2016311927</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>205</v>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" s="3" spans="1:11">
+      <c r="A42" s="4" t="n">
+        <v>136</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>41</v>
@@ -1404,68 +1906,80 @@
         <v>7</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2016310318</v>
+        <v>2016312906</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>3.38</v>
+        <v>4.18</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" s="3" spans="1:11">
+      <c r="A43" s="4" t="n">
+        <v>137</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2014310523</v>
+        <v>2016312937</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>3.03</v>
+        <v>2.6</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>128</v>
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" s="3" spans="1:11">
+      <c r="A44" s="4" t="n">
+        <v>138</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2016312582</v>
+        <v>2016313613</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>10</v>
@@ -1474,15 +1988,21 @@
         <v>1</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>100</v>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" s="3" spans="1:11">
+      <c r="A45" s="4" t="n">
+        <v>139</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>41</v>
@@ -1491,201 +2011,243 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2014312275</v>
+        <v>2016314693</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2.7</v>
+        <v>3.71</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>202</v>
+        <v>13</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" s="3" spans="1:11">
+      <c r="A46" s="4" t="n">
+        <v>173</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2015311140</v>
+        <v>2013312682</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>3.7</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>99</v>
+        <v>13</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" s="3" spans="1:11">
+      <c r="A47" s="4" t="n">
+        <v>174</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2014312099</v>
+        <v>2016312457</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" s="3" spans="1:11">
+      <c r="A48" s="4" t="n">
+        <v>175</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2016312276</v>
+        <v>2016314208</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>63</v>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" s="3" spans="1:11">
+      <c r="A49" s="4" t="n">
+        <v>176</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2015313496</v>
+        <v>2012313718</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="50" s="3" spans="1:11">
+      <c r="A50" s="4" t="n">
+        <v>177</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2015314115</v>
+        <v>2014310551</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>233</v>
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="51" s="3" spans="1:11">
+      <c r="A51" s="4" t="n">
+        <v>178</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2013313510</v>
+        <v>2015311059</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>3.3</v>
+        <v>3.94</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="52" s="3" spans="1:11">
+      <c r="A52" s="4" t="n">
+        <v>179</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>41</v>
@@ -1694,27 +2256,33 @@
         <v>7</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2014313069</v>
+        <v>2016311700</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>3.71</v>
+        <v>4.16</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>138</v>
+        <v>15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="53" s="3" spans="1:11">
+      <c r="A53" s="4" t="n">
+        <v>180</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>41</v>
@@ -1723,126 +2291,150 @@
         <v>7</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2016313613</v>
+        <v>2016311708</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>3.6</v>
+        <v>3.11</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="54" s="3" spans="1:11">
+      <c r="A54" s="4" t="n">
+        <v>199</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2014312532</v>
+        <v>2014312447</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2.69</v>
+        <v>3.82</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>135</v>
+      <c r="J54" t="n">
+        <v>4</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="55" s="3" spans="1:11">
+      <c r="A55" s="4" t="n">
+        <v>200</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2016311927</v>
+        <v>2016314265</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>3.59</v>
+        <v>3.61</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>14</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>67</v>
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="56" s="3" spans="1:11">
+      <c r="A56" s="4" t="n">
+        <v>201</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2013314206</v>
+        <v>2016313086</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>200</v>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="57" s="3" spans="1:11">
+      <c r="A57" s="4" t="n">
+        <v>202</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2016314265</v>
+        <v>2015311140</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>3.61</v>
+        <v>3.7</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>12</v>
@@ -1851,15 +2443,21 @@
         <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="58" s="3" spans="1:11">
+      <c r="A58" s="4" t="n">
+        <v>203</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>41</v>
@@ -1868,27 +2466,31 @@
         <v>7</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2016311449</v>
+        <v>2014311456</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2.2</v>
+        <v>4.09</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>15</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>203</v>
+        <v>11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="59" s="3" spans="1:11">
+      <c r="A59" s="4" t="n">
+        <v>204</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>41</v>
@@ -1897,10 +2499,10 @@
         <v>7</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2014311456</v>
+        <v>2014313701</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>4.09</v>
+        <v>3.83</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>12</v>
@@ -1909,85 +2511,103 @@
         <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>39</v>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="60" s="3" spans="1:11">
+      <c r="A60" s="4" t="n">
+        <v>205</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2014311415</v>
+        <v>2016310318</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>3.8</v>
+        <v>3.38</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>130</v>
+      <c r="J60" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="61" s="3" spans="1:11">
+      <c r="A61" s="4" t="n">
+        <v>230</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>2016314369</v>
+        <v>2014311254</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>3.61</v>
+        <v>4.5</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>234</v>
+      <c r="J61" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="62" s="3" spans="1:11">
+      <c r="A62" s="4" t="n">
+        <v>231</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2014310944</v>
+        <v>2016310982</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>3.2</v>
+        <v>3.79</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>13</v>
@@ -1996,44 +2616,56 @@
         <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>66</v>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="63" s="3" spans="1:11">
+      <c r="A63" s="4" t="n">
+        <v>232</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2014312575</v>
+        <v>2013313484</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>3.32</v>
+        <v>2.6</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="64" s="3" spans="1:11">
+      <c r="A64" s="4" t="n">
+        <v>233</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>41</v>
@@ -2042,56 +2674,68 @@
         <v>4</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2015311220</v>
+        <v>2013313510</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>97</v>
+        <v>11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="65" s="3" spans="1:11">
+      <c r="A65" s="4" t="n">
+        <v>234</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>2016314677</v>
+        <v>2014310944</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>3.32</v>
+        <v>3.2</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>262</v>
+        <v>11</v>
+      </c>
+      <c r="J65" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="66" s="3" spans="1:11">
+      <c r="A66" s="4" t="n">
+        <v>235</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>41</v>
@@ -2100,47 +2744,64 @@
         <v>7</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>2016313470</v>
+        <v>2014314912</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>13</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="67" s="3" spans="1:11">
+      <c r="A67" s="4" t="n">
+        <v>247</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>2012313718</v>
+        <v>2016310717</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>177</v>
+        <v>15</v>
+      </c>
+      <c r="J67" t="s"/>
+      <c r="K67" t="s"/>
+    </row>
+    <row customHeight="1" ht="15" r="68" s="3" spans="1:11">
+      <c r="A68" s="4" t="n">
+        <v>248</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>41</v>
@@ -2149,27 +2810,33 @@
         <v>7</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>2014310551</v>
+        <v>2012313245</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>101</v>
+        <v>15</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="69" s="3" spans="1:11">
+      <c r="A69" s="4" t="n">
+        <v>262</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>41</v>
@@ -2178,52 +2845,49 @@
         <v>7</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>2014312326</v>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F69" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>2016313470</v>
+      </c>
+      <c r="E69" s="2" t="s"/>
+      <c r="F69" s="2" t="s"/>
+      <c r="G69" s="2" t="s"/>
       <c r="H69" s="2" t="n">
         <v>17</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="8.570850202429151"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="1" s="3" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +2913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="2" s="3" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>187</v>
       </c>
@@ -2275,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>185</v>
       </c>
@@ -2304,10 +2968,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="3" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>250</v>
       </c>
@@ -2333,10 +2997,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="3" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>210</v>
       </c>
@@ -2362,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="3" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>186</v>
       </c>
@@ -2391,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="3" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>249</v>
       </c>
@@ -2420,10 +3084,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="3" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>213</v>
       </c>
@@ -2449,10 +3113,10 @@
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="3" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>209</v>
       </c>
@@ -2478,10 +3142,10 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="3" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>149</v>
       </c>
@@ -2507,10 +3171,10 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="3" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>146</v>
       </c>
@@ -2536,10 +3200,10 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="3" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>112</v>
       </c>
@@ -2565,10 +3229,10 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="3" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>109</v>
       </c>
@@ -2594,10 +3258,10 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="3" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>142</v>
       </c>
@@ -2623,10 +3287,10 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="3" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>140</v>
       </c>
@@ -2652,10 +3316,10 @@
         <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="3" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>143</v>
       </c>
@@ -2681,10 +3345,10 @@
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="3" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>110</v>
       </c>
@@ -2710,10 +3374,10 @@
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="3" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>45</v>
       </c>
@@ -2742,7 +3406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="19" s="3" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>7</v>
       </c>
@@ -2771,7 +3435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="20" s="3" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>73</v>
       </c>
@@ -2800,7 +3464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="21" s="3" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>12</v>
       </c>
@@ -2829,7 +3493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="22" s="3" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>47</v>
       </c>
@@ -2858,7 +3522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="23" s="3" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>1</v>
       </c>
@@ -2887,7 +3551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="24" s="3" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>46</v>
       </c>
@@ -2916,7 +3580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="25" s="3" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>75</v>
       </c>
@@ -2945,7 +3609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="26" s="3" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>183</v>
       </c>
@@ -2971,10 +3635,10 @@
         <v>7</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" s="3" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>251</v>
       </c>
@@ -3000,10 +3664,10 @@
         <v>7</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28" s="3" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>111</v>
       </c>
@@ -3029,10 +3693,10 @@
         <v>7</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29" s="3" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>48</v>
       </c>
@@ -3058,10 +3722,10 @@
         <v>7</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="3" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
@@ -3087,10 +3751,10 @@
         <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31" s="3" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>236</v>
       </c>
@@ -3116,10 +3780,10 @@
         <v>8</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32" s="3" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>184</v>
       </c>
@@ -3145,10 +3809,10 @@
         <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33" s="3" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>147</v>
       </c>
@@ -3174,10 +3838,10 @@
         <v>8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34" s="3" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>181</v>
       </c>
@@ -3203,10 +3867,10 @@
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35" s="3" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>237</v>
       </c>
@@ -3232,10 +3896,10 @@
         <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="3" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>28</v>
       </c>
@@ -3261,10 +3925,10 @@
         <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37" s="3" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>106</v>
       </c>
@@ -3290,10 +3954,10 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38" s="3" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>252</v>
       </c>
@@ -3319,10 +3983,10 @@
         <v>10</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39" s="3" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>182</v>
       </c>
@@ -3348,10 +4012,10 @@
         <v>10</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" s="3" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>141</v>
       </c>
@@ -3377,10 +4041,10 @@
         <v>10</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" s="3" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>26</v>
       </c>
@@ -3406,10 +4070,10 @@
         <v>10</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" s="3" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>107</v>
       </c>
@@ -3435,10 +4099,10 @@
         <v>11</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" s="3" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>215</v>
       </c>
@@ -3464,10 +4128,10 @@
         <v>11</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" s="3" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>144</v>
       </c>
@@ -3493,10 +4157,10 @@
         <v>11</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" s="3" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>49</v>
       </c>
@@ -3522,10 +4186,10 @@
         <v>11</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" s="3" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>211</v>
       </c>
@@ -3551,10 +4215,10 @@
         <v>12</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" s="3" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>113</v>
       </c>
@@ -3580,10 +4244,10 @@
         <v>12</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" s="3" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>148</v>
       </c>
@@ -3609,10 +4273,10 @@
         <v>12</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" s="3" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>50</v>
       </c>
@@ -3638,10 +4302,10 @@
         <v>12</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="50" s="3" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>72</v>
       </c>
@@ -3667,10 +4331,10 @@
         <v>13</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="51" s="3" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>206</v>
       </c>
@@ -3696,10 +4360,10 @@
         <v>13</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="52" s="3" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>14</v>
       </c>
@@ -3725,10 +4389,10 @@
         <v>13</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="53" s="3" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>108</v>
       </c>
@@ -3754,10 +4418,10 @@
         <v>13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="54" s="3" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>104</v>
       </c>
@@ -3783,10 +4447,10 @@
         <v>14</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="55" s="3" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>207</v>
       </c>
@@ -3812,10 +4476,10 @@
         <v>14</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="56" s="3" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>13</v>
       </c>
@@ -3841,10 +4505,10 @@
         <v>14</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="57" s="3" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>71</v>
       </c>
@@ -3870,10 +4534,10 @@
         <v>14</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="58" s="3" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>212</v>
       </c>
@@ -3899,10 +4563,10 @@
         <v>15</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="59" s="3" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>145</v>
       </c>
@@ -3928,10 +4592,10 @@
         <v>15</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="60" s="3" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>70</v>
       </c>
@@ -3957,10 +4621,10 @@
         <v>15</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="61" s="3" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>6</v>
       </c>
@@ -3986,10 +4650,10 @@
         <v>15</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="62" s="3" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>214</v>
       </c>
@@ -4015,10 +4679,10 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="63" s="3" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>105</v>
       </c>
@@ -4044,10 +4708,10 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="64" s="3" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>74</v>
       </c>
@@ -4073,10 +4737,10 @@
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="65" s="3" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>15</v>
       </c>
@@ -4102,10 +4766,10 @@
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="66" s="3" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>265</v>
       </c>
@@ -4122,10 +4786,10 @@
         <v>17</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="67" s="3" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>264</v>
       </c>
@@ -4142,10 +4806,10 @@
         <v>17</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="68" s="3" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>263</v>
       </c>
@@ -4162,10 +4826,10 @@
         <v>17</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="69" s="3" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>208</v>
       </c>
@@ -4191,94 +4855,103 @@
         <v>17</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="8.570850202429151"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row customHeight="1" ht="15" r="1" s="3" spans="1:11">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>189</v>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2" s="3" spans="1:11">
+      <c r="A2" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2016312020</v>
+        <v>2016314424</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>254</v>
+        <v>10</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="3" spans="1:11">
+      <c r="A3" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>43</v>
@@ -4287,56 +4960,68 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2016314456</v>
+        <v>2014314189</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.34</v>
+        <v>3.5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="3" spans="1:11">
+      <c r="A4" s="4" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>242</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2016314625</v>
+        <v>2016314429</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.29</v>
+        <v>3.65</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>191</v>
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="3" spans="1:11">
+      <c r="A5" s="4" t="n">
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>43</v>
@@ -4345,56 +5030,68 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2016312194</v>
+        <v>2016314856</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4.36</v>
+        <v>2.7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>240</v>
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="3" spans="1:11">
+      <c r="A6" s="4" t="n">
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2016314664</v>
+        <v>2015318674</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>253</v>
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="3" spans="1:11">
+      <c r="A7" s="4" t="n">
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>43</v>
@@ -4403,85 +5100,103 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2014314299</v>
+        <v>2014311072</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="F7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>192</v>
+        <v>11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="3" spans="1:11">
+      <c r="A8" s="4" t="n">
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2014312319</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>2014310407</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>190</v>
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="3" spans="1:11">
+      <c r="A9" s="4" t="n">
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2016312780</v>
+        <v>2016310173</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3.69</v>
+        <v>3.29</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>116</v>
+        <v>11</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="3" spans="1:11">
+      <c r="A10" s="4" t="n">
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>43</v>
@@ -4490,114 +5205,138 @@
         <v>4</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2016311855</v>
+        <v>2016313048</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>3.83</v>
+        <v>3.3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>114</v>
+        <v>11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="3" spans="1:11">
+      <c r="A11" s="4" t="n">
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2014311437</v>
+        <v>2014310862</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="F11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>153</v>
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="3" spans="1:11">
+      <c r="A12" s="4" t="n">
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2014311632</v>
+        <v>2014313716</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3.11</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>151</v>
+        <v>16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="3" spans="1:11">
+      <c r="A13" s="4" t="n">
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>2016310738</v>
+        <v>2014311104</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>3.92</v>
+        <v>4.11</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>84</v>
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="3" spans="1:11">
+      <c r="A14" s="4" t="n">
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>43</v>
@@ -4606,201 +5345,243 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2016314401</v>
+        <v>2012311683</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>3.58</v>
+        <v>2.6</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="3" spans="1:11">
+      <c r="A15" s="4" t="n">
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2014310461</v>
+        <v>2014314576</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>4.33</v>
+        <v>4.28</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>159</v>
+        <v>17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="3" spans="1:11">
+      <c r="A16" s="4" t="n">
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2016312150</v>
+        <v>2016312068</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>3.8</v>
+        <v>4.15</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>158</v>
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="3" spans="1:11">
+      <c r="A17" s="4" t="n">
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2016314526</v>
+        <v>2014314219</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="3" spans="1:11">
+      <c r="A18" s="4" t="n">
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2014310462</v>
+        <v>2014311452</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>3.86</v>
+        <v>4.13</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>83</v>
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="3" spans="1:11">
+      <c r="A19" s="4" t="n">
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2014310294</v>
+        <v>2016311939</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="3" spans="1:11">
+      <c r="A20" s="4" t="n">
+        <v>76</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2016314856</v>
+        <v>2014314804</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>8</v>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="3" spans="1:11">
+      <c r="A21" s="4" t="n">
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>43</v>
@@ -4809,13 +5590,13 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2016314429</v>
+        <v>2014310462</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3.65</v>
+        <v>3.86</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>2</v>
@@ -4826,25 +5607,31 @@
       <c r="I21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>18</v>
+      <c r="J21" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="3" spans="1:11">
+      <c r="A22" s="4" t="n">
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2014312319</v>
+        <v>2016314774</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>4.26</v>
+        <v>3.4</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>2</v>
@@ -4855,22 +5642,28 @@
       <c r="I22" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>78</v>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="3" spans="1:11">
+      <c r="A23" s="4" t="n">
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2016314774</v>
+        <v>2014310430</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>3.4</v>
+        <v>4.16</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>8</v>
@@ -4879,56 +5672,62 @@
         <v>2</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="3" spans="1:11">
+      <c r="A24" s="4" t="n">
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2016314424</v>
+        <v>2014310879</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>76</v>
+    <row customHeight="1" ht="15" r="25" s="3" spans="1:11">
+      <c r="A25" s="4" t="n">
+        <v>81</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2014314804</v>
+        <v>2016313098</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>8</v>
@@ -4937,15 +5736,21 @@
         <v>2</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="3" spans="1:11">
+      <c r="A26" s="4" t="n">
+        <v>82</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>43</v>
@@ -4954,143 +5759,173 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2012311683</v>
+        <v>2017319218</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.6</v>
+        <v>3.51</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" s="3" spans="1:11">
+      <c r="A27" s="4" t="n">
+        <v>83</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2016312068</v>
+        <v>2014310294</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>80</v>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28" s="3" spans="1:11">
+      <c r="A28" s="4" t="n">
+        <v>84</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2014310879</v>
+        <v>2016314401</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>4.5</v>
+        <v>3.58</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>8</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29" s="3" spans="1:11">
+      <c r="A29" s="4" t="n">
+        <v>114</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2014314189</v>
+        <v>2014311437</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>241</v>
+        <v>13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="3" spans="1:11">
+      <c r="A30" s="4" t="n">
+        <v>115</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2016310227</v>
+        <v>2016310032</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>156</v>
+        <v>12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31" s="3" spans="1:11">
+      <c r="A31" s="4" t="n">
+        <v>116</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>43</v>
@@ -5099,85 +5934,103 @@
         <v>4</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2015311888</v>
+        <v>2016311855</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>3.48</v>
+        <v>3.83</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>188</v>
+        <v>13</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32" s="3" spans="1:11">
+      <c r="A32" s="4" t="n">
+        <v>117</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2017311983</v>
+        <v>2014313733</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>4.24</v>
+        <v>2.9</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33" s="3" spans="1:11">
+      <c r="A33" s="4" t="n">
+        <v>150</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2014313716</v>
+        <v>2014313765</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>4</v>
+        <v>3.58</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>150</v>
+        <v>16</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34" s="3" spans="1:11">
+      <c r="A34" s="4" t="n">
+        <v>151</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>43</v>
@@ -5186,10 +6039,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2014313765</v>
+        <v>2016310738</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>3.58</v>
+        <v>3.92</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>10</v>
@@ -5198,44 +6051,56 @@
         <v>1</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>239</v>
+        <v>13</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35" s="3" spans="1:11">
+      <c r="A35" s="4" t="n">
+        <v>152</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2016310921</v>
+        <v>2016313820</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>3.75</v>
+        <v>3.33</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="3" spans="1:11">
+      <c r="A36" s="4" t="n">
+        <v>153</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>43</v>
@@ -5244,85 +6109,103 @@
         <v>3</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2014310862</v>
+        <v>2014311632</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>193</v>
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37" s="3" spans="1:11">
+      <c r="A37" s="4" t="n">
+        <v>154</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2013314323</v>
+        <v>2014310286</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>220</v>
+        <v>12</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38" s="3" spans="1:11">
+      <c r="A38" s="4" t="n">
+        <v>155</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2014314666</v>
+        <v>2014310461</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39" s="3" spans="1:11">
+      <c r="A39" s="4" t="n">
+        <v>156</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>43</v>
@@ -5331,10 +6214,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2014310286</v>
+        <v>2015311888</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>4</v>
+        <v>3.48</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>10</v>
@@ -5343,15 +6226,21 @@
         <v>1</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>115</v>
+        <v>16</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" s="3" spans="1:11">
+      <c r="A40" s="4" t="n">
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>43</v>
@@ -5360,27 +6249,33 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2016310032</v>
+        <v>2016312543</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>3.09</v>
+        <v>4.12</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" s="3" spans="1:11">
+      <c r="A41" s="4" t="n">
+        <v>158</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>43</v>
@@ -5389,68 +6284,80 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2014311104</v>
+        <v>2016314526</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>4.11</v>
+        <v>3</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>117</v>
+        <v>13</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" s="3" spans="1:11">
+      <c r="A42" s="4" t="n">
+        <v>159</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2014313733</v>
+        <v>2016312150</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>157</v>
+        <v>13</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" s="3" spans="1:11">
+      <c r="A43" s="4" t="n">
+        <v>160</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2016312543</v>
+        <v>2013311338</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>10</v>
@@ -5459,189 +6366,231 @@
         <v>1</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>55</v>
+      <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" s="3" spans="1:11">
+      <c r="A44" s="4" t="n">
+        <v>161</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2016311939</v>
+        <v>2014314517</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>238</v>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" s="3" spans="1:11">
+      <c r="A45" s="4" t="n">
+        <v>162</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2014314484</v>
+        <v>2016311283</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>54</v>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" s="3" spans="1:11">
+      <c r="A46" s="4" t="n">
+        <v>188</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2014311452</v>
+        <v>2017311983</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>4.13</v>
+        <v>4.24</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" s="3" spans="1:11">
+      <c r="A47" s="4" t="n">
+        <v>189</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2016310173</v>
+        <v>2016312020</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>3.29</v>
+        <v>2.1</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>216</v>
+        <v>15</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" s="3" spans="1:11">
+      <c r="A48" s="4" t="n">
+        <v>190</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2016313802</v>
+        <v>2016312780</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" s="3" spans="1:11">
+      <c r="A49" s="4" t="n">
+        <v>191</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2014314517</v>
+        <v>2016312194</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>3.7</v>
+        <v>4.36</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="50" s="3" spans="1:11">
+      <c r="A50" s="4" t="n">
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>43</v>
@@ -5650,142 +6599,172 @@
         <v>6</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2013311338</v>
+        <v>2014310407</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>3.61</v>
+        <v>4.5</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>218</v>
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="51" s="3" spans="1:11">
+      <c r="A51" s="4" t="n">
+        <v>193</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2014312666</v>
+        <v>2013314323</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="52" s="3" spans="1:11">
+      <c r="A52" s="4" t="n">
+        <v>216</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2017319218</v>
+        <v>2016313802</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>3.51</v>
+        <v>3.75</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="53" s="3" spans="1:11">
+      <c r="A53" s="4" t="n">
+        <v>217</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2016313048</v>
+        <v>2016314647</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="54" s="3" spans="1:11">
+      <c r="A54" s="4" t="n">
+        <v>218</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2016313098</v>
+        <v>2014312666</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="55" s="3" spans="1:11">
+      <c r="A55" s="4" t="n">
         <v>219</v>
       </c>
       <c r="B55" s="2" t="n">
@@ -5810,329 +6789,401 @@
         <v>14</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="56" s="3" spans="1:11">
+      <c r="A56" s="4" t="n">
+        <v>220</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2014311072</v>
+        <v>2014314666</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>162</v>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="57" s="3" spans="1:11">
+      <c r="A57" s="4" t="n">
+        <v>238</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2016311283</v>
+        <v>2014314484</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>217</v>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="58" s="3" spans="1:11">
+      <c r="A58" s="4" t="n">
+        <v>239</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2016314647</v>
+        <v>2016310921</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>3.44</v>
+        <v>3.75</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>152</v>
+        <v>16</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="59" s="3" spans="1:11">
+      <c r="A59" s="4" t="n">
+        <v>240</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2016313820</v>
+        <v>2016314664</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>16</v>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="60" s="3" spans="1:11">
+      <c r="A60" s="4" t="n">
+        <v>241</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2015318674</v>
+        <v>2016310227</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>79</v>
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="61" s="3" spans="1:11">
+      <c r="A61" s="4" t="n">
+        <v>242</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>2014310430</v>
+        <v>2016314625</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>4.16</v>
+        <v>4.29</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>268</v>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="62" s="3" spans="1:11">
+      <c r="A62" s="4" t="n">
+        <v>253</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2009313991</v>
+        <v>2014314299</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F62" t="n">
+        <v>14</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>266</v>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="63" s="3" spans="1:11">
+      <c r="A63" s="4" t="n">
+        <v>254</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2015314601</v>
+        <v>2016314456</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F63" t="n">
+        <v>14</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>267</v>
+      <c r="J63" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="64" s="3" spans="1:11">
+      <c r="A64" s="4" t="n">
+        <v>266</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2016311609</v>
+        <v>2015314601</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="65" s="3" spans="1:11">
+      <c r="A65" s="4" t="n">
+        <v>267</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>2014314576</v>
-      </c>
-      <c r="E65" s="2" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F65" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G65" s="2" t="n">
-        <v>2</v>
-      </c>
+        <v>2016311609</v>
+      </c>
+      <c r="E65" s="2" t="n"/>
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="n"/>
       <c r="H65" s="2" t="n">
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="66" s="3" spans="1:11">
+      <c r="A66" s="4" t="n">
+        <v>268</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>2014314219</v>
-      </c>
-      <c r="E66" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F66" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>2</v>
-      </c>
+        <v>2009313991</v>
+      </c>
+      <c r="E66" s="2" t="n"/>
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
       <c r="H66" s="2" t="n">
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col customWidth="1" max="1025" min="1" style="2" width="8.570850202429151"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="1" s="3" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6158,7 +7209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="2" s="3" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>261</v>
       </c>
@@ -6184,10 +7235,10 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>243</v>
       </c>
@@ -6213,10 +7264,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="3" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>198</v>
       </c>
@@ -6242,10 +7293,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="3" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>197</v>
       </c>
@@ -6271,10 +7322,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="3" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>260</v>
       </c>
@@ -6300,10 +7351,10 @@
         <v>2</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="3" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>195</v>
       </c>
@@ -6329,10 +7380,10 @@
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="3" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>257</v>
       </c>
@@ -6358,10 +7409,10 @@
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="3" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>222</v>
       </c>
@@ -6387,10 +7438,10 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="3" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>259</v>
       </c>
@@ -6416,10 +7467,10 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="3" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>246</v>
       </c>
@@ -6445,10 +7496,10 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="3" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>224</v>
       </c>
@@ -6474,10 +7525,10 @@
         <v>3</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="3" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>223</v>
       </c>
@@ -6503,10 +7554,10 @@
         <v>3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="14" s="3" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>163</v>
       </c>
@@ -6532,10 +7583,10 @@
         <v>4</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="15" s="3" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>123</v>
       </c>
@@ -6561,10 +7612,10 @@
         <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="16" s="3" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>118</v>
       </c>
@@ -6590,10 +7641,10 @@
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="17" s="3" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>91</v>
       </c>
@@ -6619,10 +7670,10 @@
         <v>4</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="3" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>170</v>
       </c>
@@ -6648,10 +7699,10 @@
         <v>5</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="3" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>87</v>
       </c>
@@ -6677,10 +7728,10 @@
         <v>5</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="3" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>164</v>
       </c>
@@ -6706,10 +7757,10 @@
         <v>5</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="3" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>86</v>
       </c>
@@ -6735,10 +7786,10 @@
         <v>5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="3" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>122</v>
       </c>
@@ -6764,10 +7815,10 @@
         <v>6</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="3" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>124</v>
       </c>
@@ -6793,10 +7844,10 @@
         <v>6</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="3" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>166</v>
       </c>
@@ -6822,10 +7873,10 @@
         <v>6</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" s="3" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>93</v>
       </c>
@@ -6851,10 +7902,10 @@
         <v>6</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="3" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>22</v>
       </c>
@@ -6883,7 +7934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="27" s="3" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>62</v>
       </c>
@@ -6912,7 +7963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="28" s="3" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>58</v>
       </c>
@@ -6941,7 +7992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="29" s="3" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>59</v>
       </c>
@@ -6970,7 +8021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="15" r="30" s="3" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>57</v>
       </c>
@@ -6996,10 +8047,10 @@
         <v>8</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31" s="3" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>255</v>
       </c>
@@ -7025,10 +8076,10 @@
         <v>8</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32" s="3" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>194</v>
       </c>
@@ -7054,10 +8105,10 @@
         <v>8</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33" s="3" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>171</v>
       </c>
@@ -7083,10 +8134,10 @@
         <v>8</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34" s="3" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>258</v>
       </c>
@@ -7112,10 +8163,10 @@
         <v>9</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35" s="3" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>56</v>
       </c>
@@ -7141,10 +8192,10 @@
         <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="3" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>196</v>
       </c>
@@ -7170,10 +8221,10 @@
         <v>9</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="37" s="3" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>165</v>
       </c>
@@ -7199,10 +8250,10 @@
         <v>9</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38" s="3" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>33</v>
       </c>
@@ -7228,10 +8279,10 @@
         <v>10</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="39" s="3" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>221</v>
       </c>
@@ -7257,10 +8308,10 @@
         <v>10</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" s="3" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>245</v>
       </c>
@@ -7286,10 +8337,10 @@
         <v>10</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" s="3" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>127</v>
       </c>
@@ -7315,10 +8366,10 @@
         <v>10</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" s="3" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>227</v>
       </c>
@@ -7344,10 +8395,10 @@
         <v>11</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" s="3" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>244</v>
       </c>
@@ -7373,10 +8424,10 @@
         <v>11</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" s="3" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>121</v>
       </c>
@@ -7402,10 +8453,10 @@
         <v>11</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" s="3" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>35</v>
       </c>
@@ -7431,10 +8482,10 @@
         <v>11</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" s="3" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>229</v>
       </c>
@@ -7460,10 +8511,10 @@
         <v>12</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" s="3" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>36</v>
       </c>
@@ -7489,10 +8540,10 @@
         <v>12</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" s="3" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>125</v>
       </c>
@@ -7518,10 +8569,10 @@
         <v>12</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" s="3" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>168</v>
       </c>
@@ -7547,10 +8598,10 @@
         <v>12</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="50" s="3" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>226</v>
       </c>
@@ -7576,10 +8627,10 @@
         <v>13</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="51" s="3" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>34</v>
       </c>
@@ -7605,10 +8656,10 @@
         <v>13</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="52" s="3" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>120</v>
       </c>
@@ -7634,10 +8685,10 @@
         <v>13</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="53" s="3" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>172</v>
       </c>
@@ -7663,10 +8714,10 @@
         <v>13</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="54" s="3" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>60</v>
       </c>
@@ -7692,10 +8743,10 @@
         <v>14</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="55" s="3" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>228</v>
       </c>
@@ -7721,10 +8772,10 @@
         <v>14</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="56" s="3" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>167</v>
       </c>
@@ -7750,10 +8801,10 @@
         <v>14</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="57" s="3" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>89</v>
       </c>
@@ -7779,10 +8830,10 @@
         <v>14</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="58" s="3" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>225</v>
       </c>
@@ -7808,10 +8859,10 @@
         <v>15</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="59" s="3" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>169</v>
       </c>
@@ -7837,10 +8888,10 @@
         <v>15</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="60" s="3" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>61</v>
       </c>
@@ -7866,10 +8917,10 @@
         <v>15</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="61" s="3" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>119</v>
       </c>
@@ -7895,10 +8946,10 @@
         <v>15</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="62" s="3" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>94</v>
       </c>
@@ -7924,10 +8975,10 @@
         <v>16</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="63" s="3" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>90</v>
       </c>
@@ -7953,10 +9004,10 @@
         <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="64" s="3" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>126</v>
       </c>
@@ -7982,10 +9033,10 @@
         <v>16</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="65" s="3" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>21</v>
       </c>
@@ -8011,10 +9062,10 @@
         <v>16</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="66" s="3" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>256</v>
       </c>
@@ -8040,10 +9091,10 @@
         <v>16</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="67" s="3" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>269</v>
       </c>
@@ -8060,10 +9111,10 @@
         <v>17</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="68" s="3" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>270</v>
       </c>
@@ -8080,10 +9131,10 @@
         <v>17</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="69" s="3" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>92</v>
       </c>
@@ -8109,10 +9160,10 @@
         <v>17</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="70" s="3" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>88</v>
       </c>
@@ -8138,10 +9189,10 @@
         <v>17</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="71" s="3" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>85</v>
       </c>
@@ -8167,16 +9218,12 @@
         <v>17</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="0" verticalDpi="300"/>
 </worksheet>
 </file>